--- a/eBay/PTSKU车型图片/menu.xlsx
+++ b/eBay/PTSKU车型图片/menu.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1034,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD105"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="1"/>
@@ -1062,8 +1062,24 @@
         <v>195869810493</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>185140862971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>387410192259</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B2" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B3" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
